--- a/ysl/static/엔트리2차어드민.xlsx
+++ b/ysl/static/엔트리2차어드민.xlsx
@@ -35,6 +35,7 @@
     <sheet name="은주바보22" sheetId="26" state="visible" r:id="rId26"/>
     <sheet name="은주바보23" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="은주바보24" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="제목 없음1" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2147,13 +2148,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,105 +2165,154 @@
     <row r="1">
       <c r="D1" t="inlineStr">
         <is>
-          <t>테스트용면접관</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>수험번호</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+          <t>12345@dsm.hs.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>테스트용이채은면접관</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>16</v>
+      </c>
+      <c r="P3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>수험번호</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>이름</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A3:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>수험번호</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A3:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>수험번호</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>친절도</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>성실도</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>친절도</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>성실도</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>친절도</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>성실도</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>친절도</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>성실도</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>친절도</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>성실도</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>친절도</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>성실도</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>친절도</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>성실도</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2305,7 +2355,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>수험번호</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>수험번호</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2326,6 +2448,49 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>수험번호</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>테스트용면접관</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" t="n">
         <v>2</v>
